--- a/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3530957259503235</v>
+        <v>0.3632043424161808</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4007453214091707</v>
+        <v>0.4010973094422004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3082108298330465</v>
+        <v>0.3128376788516589</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.22368977859214</v>
+        <v>0.22083523482161</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2826874530147072</v>
+        <v>0.2802991937688252</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2076495397860889</v>
+        <v>0.2051321419634563</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3045242535898165</v>
+        <v>0.3093634965377294</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3620714738201893</v>
+        <v>0.3648544077364462</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2722479177651112</v>
+        <v>0.2671739167181964</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4755431221477231</v>
+        <v>0.4742245608309416</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5254226140216437</v>
+        <v>0.5232317056487593</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4273981959418141</v>
+        <v>0.4247690170573394</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3342737840851339</v>
+        <v>0.3368929756222322</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4000424283564474</v>
+        <v>0.4040990893783281</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3151364491497499</v>
+        <v>0.3100526868826073</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3909689804170607</v>
+        <v>0.3888080604091617</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4470375483512724</v>
+        <v>0.4490425232474392</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.349706754339378</v>
+        <v>0.3502686813389347</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3431533976893951</v>
+        <v>0.3486345312085261</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3645626819179169</v>
+        <v>0.3673978591204454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.375652615163484</v>
+        <v>0.372063453224974</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1996380016325228</v>
+        <v>0.2000740967510328</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2504924982552179</v>
+        <v>0.2498082585916903</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2302578788202016</v>
+        <v>0.2359386343863078</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2847765060652333</v>
+        <v>0.282190952263953</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3186617571685596</v>
+        <v>0.3189721198115835</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3143418528226167</v>
+        <v>0.3138391086602676</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4308350383765249</v>
+        <v>0.4368952890673024</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4581057787578598</v>
+        <v>0.4613363175158529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4623518141608783</v>
+        <v>0.4627637516892474</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2746692057466472</v>
+        <v>0.2749657162519774</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3337375842722901</v>
+        <v>0.3298604192814595</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.309318512478442</v>
+        <v>0.309134602067165</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3438358977120161</v>
+        <v>0.3387860716323904</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3800152301111704</v>
+        <v>0.3801658700509495</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3762102058807129</v>
+        <v>0.3744878047003707</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4083983735268397</v>
+        <v>0.4045555632879851</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3390717151438142</v>
+        <v>0.3394412088580163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2555268362168266</v>
+        <v>0.255614511673097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2394867012299876</v>
+        <v>0.2382874598600116</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2063247756491275</v>
+        <v>0.2090666611000696</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1970574679787342</v>
+        <v>0.1954025471139759</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3320257859531728</v>
+        <v>0.3330703219300206</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2883203427022857</v>
+        <v>0.2877444616672079</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.241514861146699</v>
+        <v>0.2390903412388136</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5192593362815652</v>
+        <v>0.5187893952216297</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4457155476134362</v>
+        <v>0.4492976595286324</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3544187808554471</v>
+        <v>0.3574327049174115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3327210747929896</v>
+        <v>0.3335968420725905</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3051063449759228</v>
+        <v>0.3065072736317756</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2838719234281922</v>
+        <v>0.2890352995003008</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4054766347677515</v>
+        <v>0.4073860879470968</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3595919807700846</v>
+        <v>0.3598528653492105</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3055236517860644</v>
+        <v>0.3091741562053482</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.428080863551535</v>
+        <v>0.4220422437508997</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3024339560555676</v>
+        <v>0.2985255979197087</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3308740960979882</v>
+        <v>0.3357509664295419</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2381333436596306</v>
+        <v>0.2405444784484232</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2264543249847025</v>
+        <v>0.2222991327148654</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.230956069195597</v>
+        <v>0.233678627319666</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3430269307748386</v>
+        <v>0.3433119880056504</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2757883677188874</v>
+        <v>0.2747261871890133</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2973283290784517</v>
+        <v>0.2963631369025901</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5266343816852941</v>
+        <v>0.5274353179008174</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4094581458787162</v>
+        <v>0.4090723094884463</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4384905605915098</v>
+        <v>0.4400309696277403</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.327505762992469</v>
+        <v>0.3286805324379815</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3178593772894719</v>
+        <v>0.3101661407377628</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3287383483816649</v>
+        <v>0.3293274701358817</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4156901822942599</v>
+        <v>0.4152454355546209</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3429814850724392</v>
+        <v>0.3460454636836303</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3650210735722037</v>
+        <v>0.3712887018669058</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3488298863770726</v>
+        <v>0.3514510703075588</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3632004649791458</v>
+        <v>0.3575014892843664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3406896950849944</v>
+        <v>0.339987145224883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2242162860039881</v>
+        <v>0.2272228994020341</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2352806090424712</v>
+        <v>0.2322014736751331</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2009772397361512</v>
+        <v>0.205024298595553</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3057563519490653</v>
+        <v>0.302575653865344</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.317868207906962</v>
+        <v>0.3123335758306499</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.284138837086472</v>
+        <v>0.2864870101279118</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.489133482281301</v>
+        <v>0.4859508588038983</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5019912650548439</v>
+        <v>0.4962832384965853</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.479986162693709</v>
+        <v>0.4808706437808802</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3520940571960085</v>
+        <v>0.3587993979753066</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3589322106983659</v>
+        <v>0.359228744346159</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3198196338977598</v>
+        <v>0.3226739430806057</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3983446317107585</v>
+        <v>0.3980470144912696</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4121821369959879</v>
+        <v>0.4130566387204702</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3788794126231048</v>
+        <v>0.3789344583070257</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3979414848299698</v>
+        <v>0.3984947640799295</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2547775380396282</v>
+        <v>0.2540581529051632</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.280831614172066</v>
+        <v>0.2850782741235861</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1813757264993009</v>
+        <v>0.1870484925731814</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.189784727879106</v>
+        <v>0.1904177774604968</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2182239491646378</v>
+        <v>0.2178699000924394</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3089097265514891</v>
+        <v>0.3061710611111491</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2361026028996525</v>
+        <v>0.2378527872753303</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2669115199179849</v>
+        <v>0.2649138435327128</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.516558257738144</v>
+        <v>0.5232183668613861</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3672966172388736</v>
+        <v>0.3705258969205102</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4000608274969622</v>
+        <v>0.3985725077350764</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2845784217854494</v>
+        <v>0.2841880900210125</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.29110880363648</v>
+        <v>0.2928885853521054</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3325881327561677</v>
+        <v>0.3224707410047542</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3893388937586567</v>
+        <v>0.3867331483005047</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3136731568388668</v>
+        <v>0.3132315546915367</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3411649962868507</v>
+        <v>0.3424117690808927</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3437200729439032</v>
+        <v>0.3429346729279313</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3863929643611026</v>
+        <v>0.3827602152837872</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2727117581887776</v>
+        <v>0.2690883873709622</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2188393710592876</v>
+        <v>0.2193621209247022</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2463749977468055</v>
+        <v>0.2488834463053482</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2199038214922335</v>
+        <v>0.2188037102206213</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.291140998964489</v>
+        <v>0.2907463112825637</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3255101584961835</v>
+        <v>0.3216429639210727</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2538774672249227</v>
+        <v>0.2542743583114717</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4208113965297291</v>
+        <v>0.4227166971169176</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4650577169142668</v>
+        <v>0.4614944679463104</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3462119956532558</v>
+        <v>0.3478309033717385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2881572391047817</v>
+        <v>0.286900395273755</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.323389584581868</v>
+        <v>0.3190242285214129</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2860522901472715</v>
+        <v>0.2882975824809146</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3440779694031261</v>
+        <v>0.340858351931851</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3797749225253508</v>
+        <v>0.3769054843812997</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3035412748759569</v>
+        <v>0.3086634987127131</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3898047796930851</v>
+        <v>0.3945308382717115</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.346035758447637</v>
+        <v>0.3451110034088618</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2963402973145685</v>
+        <v>0.2945520736760084</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2085316208373683</v>
+        <v>0.207799102236385</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2204274167116027</v>
+        <v>0.2241385943430043</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2280546337031535</v>
+        <v>0.2317544242896866</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3057421229016065</v>
+        <v>0.305067360589489</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2919838672962786</v>
+        <v>0.2916648188614168</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2700486253935707</v>
+        <v>0.2703463657536744</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4643100397656374</v>
+        <v>0.4633747691690911</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4158682835557656</v>
+        <v>0.4185057079008405</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3651993745933811</v>
+        <v>0.3619977560849269</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2684250411489518</v>
+        <v>0.2698669642261376</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.28353348823646</v>
+        <v>0.2845709860319824</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2896240722738817</v>
+        <v>0.2909851767432761</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3531426807798984</v>
+        <v>0.3531981656299021</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3395555982783456</v>
+        <v>0.3393733920072924</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3170826857423973</v>
+        <v>0.3155316203652028</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4045878954716592</v>
+        <v>0.4060834222805361</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3787028203037276</v>
+        <v>0.3790909986768302</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3338943618818603</v>
+        <v>0.3335521400303301</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2404247837439934</v>
+        <v>0.2401481971050369</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2592265882613503</v>
+        <v>0.2593548981087217</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2463114498739905</v>
+        <v>0.2455825342713981</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3259054693271328</v>
+        <v>0.3269168435941037</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.322865883583975</v>
+        <v>0.322654753155259</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2927199913113854</v>
+        <v>0.294242305251616</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.440038013342917</v>
+        <v>0.4391859405449984</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.413933929762612</v>
+        <v>0.4144648272170601</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3672363941641641</v>
+        <v>0.3672893609873641</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.269910911952388</v>
+        <v>0.2716658587610183</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2911553132794867</v>
+        <v>0.2905662617000394</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.276433537667205</v>
+        <v>0.2774233471219599</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3507953464992103</v>
+        <v>0.3500966841717661</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3462686481416593</v>
+        <v>0.3467405516425792</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3162793045443187</v>
+        <v>0.3168432232446354</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>96399</v>
+        <v>99158</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>118115</v>
+        <v>118219</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>90540</v>
+        <v>91900</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>58347</v>
+        <v>57602</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>81201</v>
+        <v>80515</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>59949</v>
+        <v>59222</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>162570</v>
+        <v>165153</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>210719</v>
+        <v>212339</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>158575</v>
+        <v>155619</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>129828</v>
+        <v>129468</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>154862</v>
+        <v>154216</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>125553</v>
+        <v>124781</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>87191</v>
+        <v>87874</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>114910</v>
+        <v>116075</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>90981</v>
+        <v>89513</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>208718</v>
+        <v>207564</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>260168</v>
+        <v>261335</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>203692</v>
+        <v>204019</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>168843</v>
+        <v>171540</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>184296</v>
+        <v>185730</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>188469</v>
+        <v>186668</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>100607</v>
+        <v>100827</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>131199</v>
+        <v>130841</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>119938</v>
+        <v>122897</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>283632</v>
+        <v>281057</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>327996</v>
+        <v>328315</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>321445</v>
+        <v>320931</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>211985</v>
+        <v>214967</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>231585</v>
+        <v>233218</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>231967</v>
+        <v>232174</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>138419</v>
+        <v>138569</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>174800</v>
+        <v>172769</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>161120</v>
+        <v>161024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>342454</v>
+        <v>337425</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>391147</v>
+        <v>391302</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>384711</v>
+        <v>382950</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>130216</v>
+        <v>128991</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>109875</v>
+        <v>109995</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>81402</v>
+        <v>81430</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>80327</v>
+        <v>79924</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>70157</v>
+        <v>71090</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>66272</v>
+        <v>65716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>217231</v>
+        <v>217914</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>191468</v>
+        <v>191085</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>158162</v>
+        <v>156574</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>165564</v>
+        <v>165414</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>144432</v>
+        <v>145593</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>112905</v>
+        <v>113866</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>111599</v>
+        <v>111892</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>103747</v>
+        <v>104223</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>95469</v>
+        <v>97205</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>265286</v>
+        <v>266536</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>238798</v>
+        <v>238971</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>200079</v>
+        <v>202470</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>153540</v>
+        <v>151374</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>113105</v>
+        <v>111643</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>122412</v>
+        <v>124216</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>88456</v>
+        <v>89352</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>88080</v>
+        <v>86463</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>89149</v>
+        <v>90199</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>250453</v>
+        <v>250661</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>210408</v>
+        <v>209598</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>224769</v>
+        <v>224039</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>188888</v>
+        <v>189176</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>153130</v>
+        <v>152986</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>162226</v>
+        <v>162796</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>121654</v>
+        <v>122090</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>123632</v>
+        <v>120639</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>126892</v>
+        <v>127120</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>303507</v>
+        <v>303182</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>261672</v>
+        <v>264010</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>275942</v>
+        <v>280680</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>70920</v>
+        <v>71453</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>77223</v>
+        <v>76011</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>71961</v>
+        <v>71812</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>46563</v>
+        <v>47187</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>51666</v>
+        <v>50989</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>43931</v>
+        <v>44816</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>125659</v>
+        <v>124351</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>137386</v>
+        <v>134993</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>122125</v>
+        <v>123134</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>99445</v>
+        <v>98798</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>106732</v>
+        <v>105519</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>101383</v>
+        <v>101570</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>73119</v>
+        <v>74511</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>78818</v>
+        <v>78883</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>69908</v>
+        <v>70532</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>163710</v>
+        <v>163588</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>178149</v>
+        <v>178527</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>162845</v>
+        <v>162869</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>107767</v>
+        <v>107917</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>69804</v>
+        <v>69607</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>73893</v>
+        <v>75011</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>50449</v>
+        <v>52026</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>53146</v>
+        <v>53323</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>59600</v>
+        <v>59504</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>169578</v>
+        <v>168074</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>130804</v>
+        <v>131773</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>143128</v>
+        <v>142057</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>139890</v>
+        <v>141693</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>100632</v>
+        <v>101517</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>105265</v>
+        <v>104874</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>79154</v>
+        <v>79045</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>81519</v>
+        <v>82018</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>90835</v>
+        <v>88072</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>213730</v>
+        <v>212299</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>173779</v>
+        <v>173534</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>182946</v>
+        <v>183614</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>211397</v>
+        <v>210914</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>256097</v>
+        <v>253689</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>178759</v>
+        <v>176384</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>139667</v>
+        <v>140001</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>170948</v>
+        <v>172689</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>151588</v>
+        <v>150830</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>364871</v>
+        <v>364377</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>441600</v>
+        <v>436354</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>341421</v>
+        <v>341955</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>258810</v>
+        <v>259982</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>308235</v>
+        <v>305873</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>226937</v>
+        <v>227998</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>183907</v>
+        <v>183105</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>224385</v>
+        <v>221356</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>197187</v>
+        <v>198735</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>431214</v>
+        <v>427179</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>515218</v>
+        <v>511325</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>408210</v>
+        <v>415098</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>289935</v>
+        <v>293450</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>269240</v>
+        <v>268520</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>230726</v>
+        <v>229333</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>163387</v>
+        <v>162813</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>181380</v>
+        <v>184434</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>188411</v>
+        <v>191468</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>466962</v>
+        <v>465931</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>467445</v>
+        <v>466934</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>433361</v>
+        <v>433838</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>345351</v>
+        <v>344656</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>323574</v>
+        <v>325626</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>284338</v>
+        <v>281845</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>210314</v>
+        <v>211444</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>233308</v>
+        <v>234161</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>239278</v>
+        <v>240402</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>539357</v>
+        <v>539442</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>543603</v>
+        <v>543312</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>508838</v>
+        <v>506349</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1325228</v>
+        <v>1330127</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1297341</v>
+        <v>1298671</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1132708</v>
+        <v>1131547</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>812443</v>
+        <v>811508</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>921895</v>
+        <v>922351</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>871722</v>
+        <v>869142</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2168802</v>
+        <v>2175533</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2254274</v>
+        <v>2252800</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2028994</v>
+        <v>2039546</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1441345</v>
+        <v>1438554</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1418034</v>
+        <v>1419852</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1245818</v>
+        <v>1245998</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>912082</v>
+        <v>918012</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1035444</v>
+        <v>1033349</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>978327</v>
+        <v>981830</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2334437</v>
+        <v>2329788</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2417674</v>
+        <v>2420969</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2192295</v>
+        <v>2196204</v>
       </c>
     </row>
     <row r="40">
